--- a/raw_ts_data/fd/fd3_ts1.xlsx
+++ b/raw_ts_data/fd/fd3_ts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/fd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8AB9EC-5A69-9D4C-A0EE-36BCC771E508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97828AC1-9181-4F4A-A0FC-2548B49B9DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{EE1B1FB8-0281-4548-A9E5-3E5C43A73468}"/>
   </bookViews>
@@ -234,13 +234,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>X Section</t>
-  </si>
-  <si>
     <t>Reach</t>
   </si>
   <si>
     <t>PointID</t>
+  </si>
+  <si>
+    <t>XSection</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -756,13 +756,13 @@
     <row r="1" spans="1:8" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>65</v>

--- a/raw_ts_data/fd/fd3_ts1.xlsx
+++ b/raw_ts_data/fd/fd3_ts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAEC0FB-4477-4ABD-BC4A-811CDFB57DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D4668-D356-4979-9F48-5DBD1BD2B981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FAC161C-F140-4FC4-8ACE-E6042B26F363}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="80">
   <si>
     <t>CHANGE ROD HEIGHT 2.695m</t>
   </si>
@@ -277,6 +277,9 @@
   <si>
     <t>3TP06</t>
   </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -471,6 +474,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +800,8 @@
   <dimension ref="A1:H899"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3436,33 +3445,37 @@
       <c r="B173" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C173" s="2">
-        <v>5</v>
-      </c>
-      <c r="D173" s="18">
+      <c r="C173" s="11">
+        <v>5</v>
+      </c>
+      <c r="D173" s="20">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>6</v>
+      <c r="E173" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="12"/>
+      <c r="G173" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B174" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C174" s="11">
-        <v>5</v>
-      </c>
-      <c r="D174" s="20">
+      <c r="C174" s="27">
+        <v>5</v>
+      </c>
+      <c r="D174" s="28">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="E174" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" s="12"/>
-      <c r="G174" s="10" t="s">
+      <c r="E174" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="29"/>
+      <c r="G174" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -14476,7 +14489,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H899" xr:uid="{16C0AE97-4BC6-4F16-A6FB-9A1BFEFF3106}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/raw_ts_data/fd/fd3_ts1.xlsx
+++ b/raw_ts_data/fd/fd3_ts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D4668-D356-4979-9F48-5DBD1BD2B981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07CDB4-159D-40CF-8908-3AD95C2E03E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FAC161C-F140-4FC4-8ACE-E6042B26F363}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,12 +474,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +794,8 @@
   <dimension ref="A1:H899"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
+      <pane ySplit="1" topLeftCell="A878" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G359" sqref="G359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3464,18 +3458,17 @@
       <c r="B174" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C174" s="27">
-        <v>5</v>
-      </c>
-      <c r="D174" s="28">
+      <c r="C174" s="2">
+        <v>5</v>
+      </c>
+      <c r="D174" s="18">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="E174" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" s="29"/>
-      <c r="G174" s="30" t="s">
+      <c r="E174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6297,7 +6290,9 @@
       <c r="E356" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F356" s="12"/>
+      <c r="F356" s="12">
+        <v>5</v>
+      </c>
       <c r="G356" s="10" t="s">
         <v>47</v>
       </c>

--- a/raw_ts_data/fd/fd3_ts1.xlsx
+++ b/raw_ts_data/fd/fd3_ts1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/fd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAEC0FB-4477-4ABD-BC4A-811CDFB57DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281098B3-1638-D541-AF80-7566D3409FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FAC161C-F140-4FC4-8ACE-E6042B26F363}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{7FAC161C-F140-4FC4-8ACE-E6042B26F363}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Station 1 (Musk Ox)" sheetId="1" r:id="rId1"/>
@@ -257,12 +257,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Point ID</t>
-  </si>
-  <si>
-    <t>X Section</t>
-  </si>
-  <si>
     <t>Reach</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>3TP06</t>
+  </si>
+  <si>
+    <t>PointID</t>
+  </si>
+  <si>
+    <t>XSection</t>
   </si>
 </sst>
 </file>
@@ -791,30 +791,30 @@
   <dimension ref="A1:H899"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" style="1"/>
+    <col min="2" max="2" width="12.59765625" style="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1"/>
-    <col min="5" max="5" width="12.5546875" style="2"/>
-    <col min="6" max="6" width="12.5546875" style="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="1"/>
+    <col min="5" max="5" width="12.59765625" style="2"/>
+    <col min="6" max="6" width="12.59765625" style="1"/>
+    <col min="7" max="7" width="49.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>71</v>
@@ -827,9 +827,9 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -841,9 +841,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -856,9 +856,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -871,9 +871,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -886,9 +886,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -901,9 +901,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -916,9 +916,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -931,9 +931,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -946,9 +946,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -964,9 +964,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -979,9 +979,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -994,9 +994,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1009,9 +1009,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1024,9 +1024,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1039,9 +1039,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -1054,9 +1054,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1069,9 +1069,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
@@ -1084,9 +1084,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -1099,9 +1099,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1114,9 +1114,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1129,9 +1129,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -1144,9 +1144,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -1159,9 +1159,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
@@ -1174,9 +1174,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -1189,9 +1189,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -1204,9 +1204,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -1219,9 +1219,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -1234,9 +1234,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -1249,9 +1249,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
@@ -1264,9 +1264,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
@@ -1279,9 +1279,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -1294,9 +1294,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
@@ -1309,9 +1309,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -1324,9 +1324,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -1339,9 +1339,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -1354,9 +1354,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
@@ -1369,9 +1369,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
@@ -1384,9 +1384,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2">
         <v>6</v>
@@ -1402,9 +1402,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
@@ -1420,9 +1420,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2">
         <v>6</v>
@@ -1435,9 +1435,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2">
         <v>6</v>
@@ -1450,9 +1450,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -1465,9 +1465,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2">
         <v>7</v>
@@ -1480,9 +1480,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2">
         <v>8</v>
@@ -1495,9 +1495,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2">
         <v>8</v>
@@ -1510,9 +1510,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2">
         <v>9</v>
@@ -1525,9 +1525,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2">
         <v>9</v>
@@ -1540,9 +1540,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2">
         <v>10</v>
@@ -1555,9 +1555,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2">
         <v>10</v>
@@ -1570,9 +1570,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -1588,9 +1588,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2">
         <v>10</v>
@@ -1603,9 +1603,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2">
         <v>10</v>
@@ -1618,9 +1618,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -1633,9 +1633,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2">
         <v>9</v>
@@ -1648,9 +1648,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2">
         <v>9</v>
@@ -1663,9 +1663,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2">
         <v>8</v>
@@ -1678,9 +1678,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2">
         <v>8</v>
@@ -1693,9 +1693,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
         <v>7</v>
@@ -1708,9 +1708,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2">
         <v>7</v>
@@ -1723,9 +1723,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2">
         <v>6</v>
@@ -1738,9 +1738,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2">
         <v>6</v>
@@ -1753,9 +1753,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2">
         <v>9</v>
@@ -1768,9 +1768,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2">
         <v>9</v>
@@ -1783,9 +1783,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2">
         <v>8</v>
@@ -1798,9 +1798,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2">
         <v>8</v>
@@ -1813,9 +1813,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
@@ -1828,9 +1828,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2">
         <v>8</v>
@@ -1843,9 +1843,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2">
         <v>8</v>
@@ -1858,9 +1858,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" s="2">
         <v>8</v>
@@ -1873,9 +1873,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -1888,9 +1888,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -1903,9 +1903,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C73" s="2">
         <v>2</v>
@@ -1918,9 +1918,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2">
         <v>2</v>
@@ -1933,9 +1933,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2">
         <v>3</v>
@@ -1948,9 +1948,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2">
         <v>3</v>
@@ -1963,9 +1963,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2">
         <v>4</v>
@@ -1978,9 +1978,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2">
         <v>4</v>
@@ -1993,9 +1993,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2">
         <v>5</v>
@@ -2008,9 +2008,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2">
         <v>5</v>
@@ -2024,9 +2024,9 @@
       </c>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2">
         <v>5</v>
@@ -2039,9 +2039,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2">
         <v>5</v>
@@ -2054,9 +2054,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2">
         <v>4</v>
@@ -2069,9 +2069,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2">
         <v>4</v>
@@ -2084,9 +2084,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -2099,9 +2099,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2">
         <v>3</v>
@@ -2114,9 +2114,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
@@ -2129,9 +2129,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
@@ -2144,9 +2144,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -2159,9 +2159,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -2174,9 +2174,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
@@ -2189,9 +2189,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
@@ -2204,9 +2204,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -2219,9 +2219,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -2234,9 +2234,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2">
         <v>3</v>
@@ -2249,9 +2249,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2">
         <v>3</v>
@@ -2264,9 +2264,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2">
         <v>4</v>
@@ -2279,9 +2279,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2">
         <v>4</v>
@@ -2294,9 +2294,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C99" s="11">
         <v>4</v>
@@ -2311,9 +2311,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2">
         <v>5</v>
@@ -2326,9 +2326,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2">
         <v>5</v>
@@ -2341,9 +2341,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2">
         <v>5</v>
@@ -2356,9 +2356,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2">
         <v>5</v>
@@ -2371,9 +2371,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C104" s="2">
         <v>4</v>
@@ -2386,9 +2386,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2">
         <v>4</v>
@@ -2401,9 +2401,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
@@ -2416,9 +2416,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2">
         <v>3</v>
@@ -2431,9 +2431,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C108" s="2">
         <v>2</v>
@@ -2446,9 +2446,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2">
         <v>2</v>
@@ -2461,9 +2461,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
@@ -2476,9 +2476,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2">
         <v>1</v>
@@ -2491,9 +2491,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="5">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>64</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>64</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>64</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>64</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>64</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>64</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>64</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>64</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
         <v>64</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
         <v>64</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>64</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>64</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>64</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>64</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>64</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>64</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
         <v>64</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
         <v>64</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>64</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>64</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>64</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
         <v>64</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>64</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>64</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>64</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
         <v>64</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>64</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
         <v>64</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
         <v>64</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>64</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>64</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>64</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>64</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>64</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>64</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>64</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>64</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>64</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>64</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
         <v>64</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
         <v>64</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
         <v>64</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
         <v>64</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>64</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>64</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>64</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="162" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
         <v>64</v>
       </c>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B163" s="18" t="s">
         <v>53</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B164" s="18" t="s">
         <v>53</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B165" s="18" t="s">
         <v>53</v>
       </c>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="F165" s="18"/>
     </row>
-    <row r="166" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B166" s="18" t="s">
         <v>53</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B167" s="18" t="s">
         <v>53</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B168" s="18" t="s">
         <v>53</v>
       </c>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="F168" s="18"/>
     </row>
-    <row r="169" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B169" s="18" t="s">
         <v>53</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B170" s="18" t="s">
         <v>53</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="F170" s="18"/>
     </row>
-    <row r="171" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B171" s="18" t="s">
         <v>53</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B172" s="18" t="s">
         <v>53</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B173" s="18" t="s">
         <v>53</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B174" s="18" t="s">
         <v>53</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B175" s="18" t="s">
         <v>53</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B176" s="18" t="s">
         <v>53</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B177" s="18" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B178" s="18" t="s">
         <v>53</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B179" s="18" t="s">
         <v>53</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B180" s="18" t="s">
         <v>53</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B181" s="18" t="s">
         <v>53</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B182" s="18" t="s">
         <v>53</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B183" s="18" t="s">
         <v>53</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B184" s="18" t="s">
         <v>53</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B185" s="18" t="s">
         <v>53</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B186" s="18" t="s">
         <v>53</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B187" s="18" t="s">
         <v>53</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B188" s="18" t="s">
         <v>53</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B189" s="18" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B190" s="18" t="s">
         <v>53</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B191" s="18" t="s">
         <v>53</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B192" s="18" t="s">
         <v>53</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B193" s="18" t="s">
         <v>53</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B194" s="18" t="s">
         <v>53</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B195" s="18" t="s">
         <v>53</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B196" s="18" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B197" s="18" t="s">
         <v>53</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B198" s="18" t="s">
         <v>53</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B199" s="18" t="s">
         <v>53</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B200" s="18" t="s">
         <v>53</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B201" s="18" t="s">
         <v>53</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B202" s="18" t="s">
         <v>53</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B203" s="18" t="s">
         <v>53</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B204" s="18" t="s">
         <v>53</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B205" s="18" t="s">
         <v>53</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B206" s="18" t="s">
         <v>53</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B207" s="18" t="s">
         <v>53</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="208" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B208" s="18" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="209" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B209" s="18" t="s">
         <v>53</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B210" s="18" t="s">
         <v>53</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B211" s="18" t="s">
         <v>53</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B212" s="18" t="s">
         <v>53</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B213" s="18" t="s">
         <v>53</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B214" s="18" t="s">
         <v>53</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B215" s="18" t="s">
         <v>53</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B216" s="18" t="s">
         <v>53</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B217" s="18" t="s">
         <v>53</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B218" s="18" t="s">
         <v>53</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B219" s="18" t="s">
         <v>53</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B220" s="18" t="s">
         <v>53</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B221" s="18" t="s">
         <v>53</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B222" s="18" t="s">
         <v>53</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B223" s="18" t="s">
         <v>53</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B224" s="18" t="s">
         <v>53</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B225" s="18" t="s">
         <v>53</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B226" s="18" t="s">
         <v>53</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B227" s="18" t="s">
         <v>53</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B228" s="18" t="s">
         <v>53</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B229" s="18" t="s">
         <v>53</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B230" s="18" t="s">
         <v>53</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B231" s="18" t="s">
         <v>53</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B232" s="18" t="s">
         <v>53</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B233" s="18" t="s">
         <v>53</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B234" s="18" t="s">
         <v>53</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B235" s="18" t="s">
         <v>53</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B236" s="18" t="s">
         <v>53</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B237" s="18" t="s">
         <v>53</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B238" s="18" t="s">
         <v>53</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B239" s="18" t="s">
         <v>53</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:7" ht="14" x14ac:dyDescent="0.2">
       <c r="B240" s="18" t="s">
         <v>53</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="14" x14ac:dyDescent="0.2">
       <c r="B241" s="18" t="s">
         <v>53</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="14" x14ac:dyDescent="0.2">
       <c r="B242" s="18" t="s">
         <v>53</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" ht="14" x14ac:dyDescent="0.2">
       <c r="B243" s="18" t="s">
         <v>53</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="14" x14ac:dyDescent="0.2">
       <c r="B244" s="18" t="s">
         <v>53</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="18" t="s">
         <v>53</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="18" t="s">
         <v>53</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="18" t="s">
         <v>53</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="18" t="s">
         <v>53</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="18" t="s">
         <v>53</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="18" t="s">
         <v>53</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="18" t="s">
         <v>53</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="18" t="s">
         <v>53</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="18" t="s">
         <v>53</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="18" t="s">
         <v>53</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="18" t="s">
         <v>53</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="18" t="s">
         <v>53</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="18" t="s">
         <v>53</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="18" t="s">
         <v>53</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="18" t="s">
         <v>53</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="18" t="s">
         <v>53</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="18" t="s">
         <v>53</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="18" t="s">
         <v>53</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="18" t="s">
         <v>53</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="18" t="s">
         <v>53</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="18" t="s">
         <v>53</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="18" t="s">
         <v>53</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="18" t="s">
         <v>53</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="18" t="s">
         <v>53</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="18" t="s">
         <v>53</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B270" s="17" t="s">
         <v>53</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="1" t="s">
         <v>48</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
         <v>48</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
         <v>48</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
         <v>48</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
         <v>48</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
         <v>48</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="1" t="s">
         <v>48</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="1" t="s">
         <v>48</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="s">
         <v>48</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
         <v>48</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="s">
         <v>48</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
         <v>48</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="1" t="s">
         <v>48</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
         <v>48</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="1" t="s">
         <v>48</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="s">
         <v>48</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="1" t="s">
         <v>48</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
         <v>48</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="1" t="s">
         <v>48</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="1" t="s">
         <v>48</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="1" t="s">
         <v>48</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="s">
         <v>48</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="1" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="s">
         <v>48</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="1" t="s">
         <v>48</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
         <v>48</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="1" t="s">
         <v>48</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="1" t="s">
         <v>48</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="1" t="s">
         <v>48</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="s">
         <v>48</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="1" t="s">
         <v>48</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="1" t="s">
         <v>48</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="1" t="s">
         <v>48</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
         <v>48</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="1" t="s">
         <v>48</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="1" t="s">
         <v>48</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="1" t="s">
         <v>48</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
         <v>48</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="1" t="s">
         <v>48</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
         <v>48</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="1" t="s">
         <v>48</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="s">
         <v>48</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="1" t="s">
         <v>48</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="1" t="s">
         <v>48</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="1" t="s">
         <v>48</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
         <v>48</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="1" t="s">
         <v>48</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="1" t="s">
         <v>48</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="1" t="s">
         <v>48</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
         <v>48</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="s">
         <v>48</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="s">
         <v>48</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="1" t="s">
         <v>48</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
         <v>48</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="1" t="s">
         <v>48</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="s">
         <v>48</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="1" t="s">
         <v>48</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
         <v>48</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="1" t="s">
         <v>48</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="s">
         <v>48</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="1" t="s">
         <v>48</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="s">
         <v>48</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="1" t="s">
         <v>48</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="1" t="s">
         <v>48</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="1" t="s">
         <v>48</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="s">
         <v>48</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="1" t="s">
         <v>48</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="2:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B338" s="5" t="s">
         <v>48</v>
       </c>
@@ -6019,9 +6019,9 @@
       </c>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D339" s="1">
         <v>101</v>
@@ -6030,9 +6030,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C340" s="15">
         <v>6</v>
@@ -6045,9 +6045,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C341" s="2">
         <v>6</v>
@@ -6060,9 +6060,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C342" s="2">
         <v>7</v>
@@ -6075,9 +6075,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C343" s="2">
         <v>7</v>
@@ -6090,9 +6090,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C344" s="2">
         <v>8</v>
@@ -6105,9 +6105,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C345" s="2">
         <v>8</v>
@@ -6120,9 +6120,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C346" s="2">
         <v>9</v>
@@ -6135,9 +6135,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C347" s="2">
         <v>9</v>
@@ -6150,9 +6150,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C348" s="2">
         <v>10</v>
@@ -6165,9 +6165,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C349" s="2">
         <v>10</v>
@@ -6180,9 +6180,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C350" s="2">
         <v>10</v>
@@ -6195,9 +6195,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C351" s="2">
         <v>10</v>
@@ -6210,9 +6210,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C352" s="2">
         <v>9</v>
@@ -6225,9 +6225,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C353" s="2">
         <v>9</v>
@@ -6240,9 +6240,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C354" s="2">
         <v>8</v>
@@ -6255,9 +6255,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C355" s="2">
         <v>8</v>
@@ -6270,9 +6270,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C356" s="11">
         <v>7</v>
@@ -6289,9 +6289,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C357" s="2">
         <v>7</v>
@@ -6304,9 +6304,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C358" s="2">
         <v>7</v>
@@ -6319,9 +6319,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C359" s="2">
         <v>6</v>
@@ -6334,9 +6334,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C360" s="2">
         <v>6</v>
@@ -6349,9 +6349,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C361" s="2">
         <v>6</v>
@@ -6364,9 +6364,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C362" s="2">
         <v>6</v>
@@ -6385,9 +6385,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C363" s="2">
         <v>7</v>
@@ -6400,9 +6400,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C364" s="2">
         <v>7</v>
@@ -6421,9 +6421,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C365" s="2">
         <v>8</v>
@@ -6436,9 +6436,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C366" s="2">
         <v>8</v>
@@ -6451,9 +6451,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C367" s="2">
         <v>9</v>
@@ -6466,9 +6466,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C368" s="2">
         <v>9</v>
@@ -6481,9 +6481,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C369" s="2">
         <v>10</v>
@@ -6496,9 +6496,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C370" s="2">
         <v>10</v>
@@ -6511,9 +6511,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C371" s="2">
         <v>10</v>
@@ -6526,9 +6526,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C372" s="2">
         <v>10</v>
@@ -6541,9 +6541,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C373" s="2">
         <v>9</v>
@@ -6556,9 +6556,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C374" s="2">
         <v>9</v>
@@ -6571,9 +6571,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C375" s="2">
         <v>8</v>
@@ -6586,9 +6586,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C376" s="2">
         <v>8</v>
@@ -6601,9 +6601,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C377" s="2">
         <v>7</v>
@@ -6616,9 +6616,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C378" s="2">
         <v>7</v>
@@ -6631,9 +6631,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C379" s="2">
         <v>6</v>
@@ -6646,9 +6646,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C380" s="2">
         <v>6</v>
@@ -6661,9 +6661,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C381" s="2">
         <v>6</v>
@@ -6676,9 +6676,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C382" s="2">
         <v>6</v>
@@ -6691,9 +6691,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C383" s="2">
         <v>7</v>
@@ -6706,9 +6706,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C384" s="2">
         <v>7</v>
@@ -6721,9 +6721,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="385" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C385" s="2">
         <v>8</v>
@@ -6736,9 +6736,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="386" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C386" s="2">
         <v>8</v>
@@ -6751,9 +6751,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="387" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C387" s="2">
         <v>9</v>
@@ -6766,9 +6766,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="388" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C388" s="2">
         <v>9</v>
@@ -6781,9 +6781,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="389" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C389" s="2">
         <v>10</v>
@@ -6796,9 +6796,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="390" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C390" s="2">
         <v>10</v>
@@ -6811,9 +6811,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C391" s="2">
         <v>10</v>
@@ -6826,9 +6826,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C392" s="2">
         <v>10</v>
@@ -6841,9 +6841,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="393" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C393" s="2">
         <v>9</v>
@@ -6856,9 +6856,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C394" s="2">
         <v>9</v>
@@ -6871,9 +6871,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C395" s="2">
         <v>8</v>
@@ -6886,9 +6886,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C396" s="2">
         <v>8</v>
@@ -6901,9 +6901,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C397" s="2">
         <v>7</v>
@@ -6916,9 +6916,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C398" s="2">
         <v>7</v>
@@ -6931,9 +6931,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="399" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C399" s="2">
         <v>6</v>
@@ -6946,9 +6946,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="400" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C400" s="2">
         <v>6</v>
@@ -6961,9 +6961,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C401" s="2">
         <v>6</v>
@@ -6976,9 +6976,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C402" s="2">
         <v>6</v>
@@ -6991,9 +6991,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C403" s="2">
         <v>7</v>
@@ -7006,9 +7006,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="404" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C404" s="2">
         <v>7</v>
@@ -7021,9 +7021,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C405" s="2">
         <v>8</v>
@@ -7036,9 +7036,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="406" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C406" s="2">
         <v>8</v>
@@ -7051,9 +7051,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C407" s="2">
         <v>9</v>
@@ -7066,9 +7066,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="408" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C408" s="2">
         <v>9</v>
@@ -7081,9 +7081,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C409" s="2">
         <v>10</v>
@@ -7096,9 +7096,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C410" s="2">
         <v>10</v>
@@ -7111,9 +7111,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C411" s="2">
         <v>10</v>
@@ -7126,9 +7126,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C412" s="2">
         <v>10</v>
@@ -7141,9 +7141,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C413" s="2">
         <v>9</v>
@@ -7156,9 +7156,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="414" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C414" s="2">
         <v>9</v>
@@ -7171,9 +7171,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="415" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C415" s="2">
         <v>8</v>
@@ -7186,9 +7186,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="416" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C416" s="2">
         <v>8</v>
@@ -7201,9 +7201,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="417" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C417" s="2">
         <v>7</v>
@@ -7216,9 +7216,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C418" s="2">
         <v>7</v>
@@ -7231,9 +7231,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C419" s="2">
         <v>6</v>
@@ -7246,9 +7246,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="420" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C420" s="2">
         <v>6</v>
@@ -7261,9 +7261,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="421" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C421" s="2">
         <v>5</v>
@@ -7276,9 +7276,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C422" s="2">
         <v>5</v>
@@ -7291,9 +7291,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="423" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C423" s="2">
         <v>4</v>
@@ -7306,9 +7306,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C424" s="2">
         <v>4</v>
@@ -7321,9 +7321,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="425" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C425" s="2">
         <v>3</v>
@@ -7336,9 +7336,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="426" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C426" s="2">
         <v>3</v>
@@ -7351,9 +7351,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="427" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C427" s="2">
         <v>2</v>
@@ -7366,9 +7366,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C428" s="2">
         <v>2</v>
@@ -7381,9 +7381,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="429" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C429" s="2">
         <v>1</v>
@@ -7396,9 +7396,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="430" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C430" s="2">
         <v>1</v>
@@ -7411,9 +7411,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="431" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C431" s="2">
         <v>1</v>
@@ -7426,9 +7426,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="432" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C432" s="2">
         <v>1</v>
@@ -7441,9 +7441,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C433" s="2">
         <v>2</v>
@@ -7456,9 +7456,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="434" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C434" s="2">
         <v>2</v>
@@ -7471,9 +7471,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C435" s="2">
         <v>3</v>
@@ -7486,9 +7486,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C436" s="2">
         <v>3</v>
@@ -7501,9 +7501,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C437" s="2">
         <v>4</v>
@@ -7516,9 +7516,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="438" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C438" s="2">
         <v>4</v>
@@ -7531,9 +7531,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C439" s="2">
         <v>5</v>
@@ -7546,9 +7546,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="440" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C440" s="2">
         <v>5</v>
@@ -7561,9 +7561,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C441" s="2">
         <v>5</v>
@@ -7576,9 +7576,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="442" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C442" s="2">
         <v>5</v>
@@ -7591,9 +7591,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C443" s="2">
         <v>4</v>
@@ -7606,9 +7606,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C444" s="2">
         <v>4</v>
@@ -7621,9 +7621,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C445" s="2">
         <v>3</v>
@@ -7636,9 +7636,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="446" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C446" s="2">
         <v>3</v>
@@ -7651,9 +7651,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="447" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C447" s="2">
         <v>2</v>
@@ -7666,9 +7666,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="448" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C448" s="2">
         <v>2</v>
@@ -7681,9 +7681,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="449" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C449" s="2">
         <v>1</v>
@@ -7696,9 +7696,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="450" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C450" s="2">
         <v>1</v>
@@ -7711,9 +7711,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="451" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C451" s="2">
         <v>1</v>
@@ -7726,9 +7726,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="452" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C452" s="2">
         <v>1</v>
@@ -7741,9 +7741,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="453" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C453" s="2">
         <v>2</v>
@@ -7756,9 +7756,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="454" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C454" s="2">
         <v>2</v>
@@ -7771,9 +7771,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="455" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C455" s="2">
         <v>3</v>
@@ -7786,9 +7786,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="456" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C456" s="2">
         <v>3</v>
@@ -7801,9 +7801,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="457" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C457" s="2">
         <v>4</v>
@@ -7816,9 +7816,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="458" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C458" s="2">
         <v>4</v>
@@ -7831,9 +7831,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="459" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C459" s="2">
         <v>5</v>
@@ -7846,9 +7846,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="460" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C460" s="2">
         <v>5</v>
@@ -7861,9 +7861,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="461" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B461" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C461" s="7"/>
       <c r="D461" s="5">
@@ -7878,7 +7878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="1" t="s">
         <v>28</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="1" t="s">
         <v>28</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="1" t="s">
         <v>28</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="1" t="s">
         <v>28</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="1" t="s">
         <v>28</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="1" t="s">
         <v>28</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="1" t="s">
         <v>28</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="1" t="s">
         <v>28</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="1" t="s">
         <v>28</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="1" t="s">
         <v>28</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="1" t="s">
         <v>28</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="1" t="s">
         <v>28</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="1" t="s">
         <v>28</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="1" t="s">
         <v>28</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="1" t="s">
         <v>28</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="1" t="s">
         <v>28</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="1" t="s">
         <v>28</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="1" t="s">
         <v>28</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="1" t="s">
         <v>28</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="1" t="s">
         <v>28</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="1" t="s">
         <v>28</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="1" t="s">
         <v>28</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="1" t="s">
         <v>28</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="1" t="s">
         <v>28</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="1" t="s">
         <v>28</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="1" t="s">
         <v>28</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="1" t="s">
         <v>28</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="1" t="s">
         <v>28</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="1" t="s">
         <v>28</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="1" t="s">
         <v>28</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="1" t="s">
         <v>28</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="1" t="s">
         <v>28</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="1" t="s">
         <v>28</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="1" t="s">
         <v>28</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="1" t="s">
         <v>28</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="1" t="s">
         <v>28</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="1" t="s">
         <v>28</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
         <v>28</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="s">
         <v>28</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="1" t="s">
         <v>28</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="s">
         <v>28</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="1" t="s">
         <v>28</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="504" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="s">
         <v>28</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="505" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="s">
         <v>28</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="506" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="s">
         <v>28</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="507" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="s">
         <v>28</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="508" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="s">
         <v>28</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="509" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="s">
         <v>28</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="510" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="1" t="s">
         <v>28</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="511" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="s">
         <v>28</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="512" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="s">
         <v>28</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="513" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="1" t="s">
         <v>28</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="514" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="1" t="s">
         <v>28</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="515" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="1" t="s">
         <v>28</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="516" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
         <v>28</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="1" t="s">
         <v>28</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="518" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="1" t="s">
         <v>28</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="519" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="1" t="s">
         <v>28</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="520" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
         <v>28</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="1" t="s">
         <v>28</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="522" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="1" t="s">
         <v>28</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="523" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
         <v>28</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="524" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
         <v>28</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="525" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="1" t="s">
         <v>28</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="526" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="1" t="s">
         <v>28</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="1" t="s">
         <v>28</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="528" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
         <v>28</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="1" t="s">
         <v>28</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="530" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="1" t="s">
         <v>28</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="1" t="s">
         <v>28</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="532" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
         <v>28</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="1" t="s">
         <v>28</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="534" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="1" t="s">
         <v>28</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="1" t="s">
         <v>28</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="536" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
         <v>28</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="537" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="1" t="s">
         <v>28</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="538" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="1" t="s">
         <v>28</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="539" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="1" t="s">
         <v>28</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="540" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
         <v>28</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="541" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="1" t="s">
         <v>28</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="542" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="1" t="s">
         <v>28</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="1" t="s">
         <v>28</v>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="H543" s="13"/>
     </row>
-    <row r="544" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
         <v>28</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="545" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="1" t="s">
         <v>28</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="546" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="1" t="s">
         <v>28</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="547" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="1" t="s">
         <v>28</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="548" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="1" t="s">
         <v>28</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="1" t="s">
         <v>28</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="550" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="1" t="s">
         <v>28</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="551" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="1" t="s">
         <v>28</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="552" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="1" t="s">
         <v>28</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="1" t="s">
         <v>28</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="554" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="1" t="s">
         <v>28</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="555" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="1" t="s">
         <v>28</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="556" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="1" t="s">
         <v>28</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="1" t="s">
         <v>28</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="558" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="1" t="s">
         <v>28</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="1" t="s">
         <v>28</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="560" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="1" t="s">
         <v>28</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="1" t="s">
         <v>28</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="562" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="1" t="s">
         <v>28</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="1" t="s">
         <v>28</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="564" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="1" t="s">
         <v>28</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="565" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="1" t="s">
         <v>28</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="566" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="1" t="s">
         <v>28</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="567" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="1" t="s">
         <v>28</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="568" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="1" t="s">
         <v>28</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="569" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="1" t="s">
         <v>28</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="570" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="1" t="s">
         <v>28</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="571" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="1" t="s">
         <v>28</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="572" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="1" t="s">
         <v>28</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="573" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="1" t="s">
         <v>28</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="574" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="1" t="s">
         <v>28</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="575" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="1" t="s">
         <v>28</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="576" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="1" t="s">
         <v>28</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="577" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="1" t="s">
         <v>28</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="578" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="1" t="s">
         <v>28</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="579" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="1" t="s">
         <v>28</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="580" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="1" t="s">
         <v>28</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="1" t="s">
         <v>28</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="582" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="1" t="s">
         <v>28</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="583" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="1" t="s">
         <v>28</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="1" t="s">
         <v>28</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="585" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="1" t="s">
         <v>28</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="1" t="s">
         <v>28</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="1" t="s">
         <v>28</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="1" t="s">
         <v>28</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="589" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="1" t="s">
         <v>28</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="1" t="s">
         <v>28</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="1" t="s">
         <v>28</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="1" t="s">
         <v>28</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="1" t="s">
         <v>28</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="1" t="s">
         <v>28</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="1" t="s">
         <v>28</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="1" t="s">
         <v>28</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="1" t="s">
         <v>28</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="1" t="s">
         <v>28</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="1" t="s">
         <v>28</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="1" t="s">
         <v>28</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="1" t="s">
         <v>28</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="1" t="s">
         <v>28</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="1" t="s">
         <v>28</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="1" t="s">
         <v>28</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="1" t="s">
         <v>28</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="606" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="1" t="s">
         <v>28</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="607" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="1" t="s">
         <v>28</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="608" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="1" t="s">
         <v>28</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="1" t="s">
         <v>28</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="610" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="1" t="s">
         <v>28</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="1" t="s">
         <v>28</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="612" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="1" t="s">
         <v>28</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="1" t="s">
         <v>28</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="1" t="s">
         <v>28</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="1" t="s">
         <v>28</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="1" t="s">
         <v>28</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="1" t="s">
         <v>28</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="618" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="1" t="s">
         <v>28</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="1" t="s">
         <v>28</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="1" t="s">
         <v>28</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="1" t="s">
         <v>28</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="1" t="s">
         <v>28</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B623" s="5" t="s">
         <v>28</v>
       </c>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="F623" s="5"/>
     </row>
-    <row r="624" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="1" t="s">
         <v>25</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="625" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="1" t="s">
         <v>25</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="626" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="1" t="s">
         <v>25</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="1" t="s">
         <v>25</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="1" t="s">
         <v>25</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="1" t="s">
         <v>25</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="1" t="s">
         <v>25</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="1" t="s">
         <v>25</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="632" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="1" t="s">
         <v>25</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="1" t="s">
         <v>25</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="1" t="s">
         <v>25</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="1" t="s">
         <v>25</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="1" t="s">
         <v>25</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="1" t="s">
         <v>25</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="1" t="s">
         <v>25</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="1" t="s">
         <v>25</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="1" t="s">
         <v>25</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="1" t="s">
         <v>25</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="1" t="s">
         <v>25</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="1" t="s">
         <v>25</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="1" t="s">
         <v>25</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="1" t="s">
         <v>25</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="1" t="s">
         <v>25</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="1" t="s">
         <v>25</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="1" t="s">
         <v>25</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="1" t="s">
         <v>25</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="650" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="1" t="s">
         <v>25</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="1" t="s">
         <v>25</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="652" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B652" s="1" t="s">
         <v>25</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="653" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="1" t="s">
         <v>25</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B654" s="1" t="s">
         <v>25</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="1" t="s">
         <v>25</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="1" t="s">
         <v>25</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B657" s="1" t="s">
         <v>25</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B658" s="1" t="s">
         <v>25</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B659" s="1" t="s">
         <v>25</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B660" s="1" t="s">
         <v>25</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="1" t="s">
         <v>25</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="1" t="s">
         <v>25</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="1" t="s">
         <v>25</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B664" s="1" t="s">
         <v>25</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="1" t="s">
         <v>25</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B666" s="1" t="s">
         <v>25</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B667" s="1" t="s">
         <v>25</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="668" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B668" s="1" t="s">
         <v>25</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B669" s="1" t="s">
         <v>25</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="670" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="1" t="s">
         <v>25</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="1" t="s">
         <v>25</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B672" s="1" t="s">
         <v>25</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B673" s="1" t="s">
         <v>25</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="674" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="1" t="s">
         <v>25</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="675" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B675" s="1" t="s">
         <v>25</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="676" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B676" s="1" t="s">
         <v>25</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="1" t="s">
         <v>25</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="678" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B678" s="1" t="s">
         <v>25</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="679" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="1" t="s">
         <v>25</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="680" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B680" s="1" t="s">
         <v>25</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="681" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B681" s="1" t="s">
         <v>25</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="682" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B682" s="1" t="s">
         <v>25</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B683" s="1" t="s">
         <v>25</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="684" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B684" s="1" t="s">
         <v>25</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B685" s="5" t="s">
         <v>25</v>
       </c>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="F685" s="5"/>
     </row>
-    <row r="686" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B686" s="1" t="s">
         <v>22</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="687" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="1" t="s">
         <v>22</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="688" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B688" s="1" t="s">
         <v>22</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="1" t="s">
         <v>22</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="1" t="s">
         <v>22</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="1" t="s">
         <v>22</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B692" s="1" t="s">
         <v>22</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="693" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="1" t="s">
         <v>22</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B694" s="1" t="s">
         <v>22</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B695" s="1" t="s">
         <v>22</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B696" s="1" t="s">
         <v>22</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B697" s="1" t="s">
         <v>22</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B698" s="1" t="s">
         <v>22</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B699" s="1" t="s">
         <v>22</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="700" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B700" s="1" t="s">
         <v>22</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="701" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B701" s="1" t="s">
         <v>22</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B702" s="1" t="s">
         <v>22</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B703" s="1" t="s">
         <v>22</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B704" s="1" t="s">
         <v>22</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B705" s="1" t="s">
         <v>22</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="706" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B706" s="1" t="s">
         <v>22</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="707" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B707" s="1" t="s">
         <v>22</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B708" s="1" t="s">
         <v>22</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B709" s="1" t="s">
         <v>22</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B710" s="1" t="s">
         <v>22</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="711" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B711" s="1" t="s">
         <v>22</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="712" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B712" s="1" t="s">
         <v>22</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="713" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B713" s="1" t="s">
         <v>22</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B714" s="1" t="s">
         <v>22</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B715" s="1" t="s">
         <v>22</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B716" s="1" t="s">
         <v>22</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B717" s="1" t="s">
         <v>22</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B718" s="1" t="s">
         <v>22</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B719" s="1" t="s">
         <v>22</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B720" s="1" t="s">
         <v>22</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B721" s="1" t="s">
         <v>22</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B722" s="1" t="s">
         <v>22</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="723" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B723" s="1" t="s">
         <v>22</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="724" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B724" s="1" t="s">
         <v>22</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B725" s="1" t="s">
         <v>22</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="726" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B726" s="1" t="s">
         <v>22</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B727" s="1" t="s">
         <v>22</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B728" s="1" t="s">
         <v>22</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B729" s="1" t="s">
         <v>22</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="730" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B730" s="1" t="s">
         <v>22</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B731" s="1" t="s">
         <v>22</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="732" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B732" s="1" t="s">
         <v>22</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B733" s="1" t="s">
         <v>22</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="734" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B734" s="1" t="s">
         <v>22</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B735" s="1" t="s">
         <v>22</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="736" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B736" s="1" t="s">
         <v>22</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="737" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B737" s="1" t="s">
         <v>22</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B738" s="1" t="s">
         <v>22</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="739" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B739" s="1" t="s">
         <v>22</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="740" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B740" s="1" t="s">
         <v>22</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="741" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B741" s="1" t="s">
         <v>22</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="742" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B742" s="1" t="s">
         <v>22</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B743" s="1" t="s">
         <v>22</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B744" s="1" t="s">
         <v>22</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="745" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B745" s="1" t="s">
         <v>22</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B746" s="1" t="s">
         <v>22</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="747" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B747" s="5" t="s">
         <v>22</v>
       </c>
@@ -12199,9 +12199,9 @@
       </c>
       <c r="F747" s="5"/>
     </row>
-    <row r="748" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B748" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D748" s="1">
         <v>101</v>
@@ -12213,9 +12213,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="749" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B749" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C749" s="2">
         <v>1</v>
@@ -12228,9 +12228,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B750" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C750" s="2">
         <v>1</v>
@@ -12243,9 +12243,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B751" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C751" s="2">
         <v>1</v>
@@ -12258,9 +12258,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="752" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B752" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C752" s="2">
         <v>1</v>
@@ -12273,9 +12273,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B753" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C753" s="2">
         <v>1</v>
@@ -12288,9 +12288,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="754" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B754" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C754" s="2">
         <v>1</v>
@@ -12303,9 +12303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B755" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C755" s="2">
         <v>2</v>
@@ -12318,9 +12318,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="756" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B756" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C756" s="2">
         <v>2</v>
@@ -12333,9 +12333,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="757" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B757" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C757" s="2">
         <v>3</v>
@@ -12348,9 +12348,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="758" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B758" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C758" s="2">
         <v>3</v>
@@ -12363,9 +12363,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="759" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B759" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C759" s="2">
         <v>4</v>
@@ -12378,9 +12378,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="760" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B760" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C760" s="2">
         <v>4</v>
@@ -12393,9 +12393,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="761" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B761" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C761" s="2">
         <v>5</v>
@@ -12408,9 +12408,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="762" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B762" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C762" s="2">
         <v>5</v>
@@ -12423,9 +12423,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="763" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B763" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C763" s="2">
         <v>4</v>
@@ -12438,9 +12438,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="764" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B764" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C764" s="2">
         <v>4</v>
@@ -12453,9 +12453,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B765" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C765" s="2">
         <v>5</v>
@@ -12468,9 +12468,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="766" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B766" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C766" s="2">
         <v>5</v>
@@ -12483,9 +12483,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B767" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C767" s="2">
         <v>3</v>
@@ -12498,9 +12498,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B768" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C768" s="2">
         <v>3</v>
@@ -12513,9 +12513,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="769" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B769" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C769" s="2">
         <v>3</v>
@@ -12528,9 +12528,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="770" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B770" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C770" s="2">
         <v>3</v>
@@ -12543,9 +12543,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="771" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B771" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C771" s="2">
         <v>2</v>
@@ -12558,9 +12558,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="772" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B772" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C772" s="2">
         <v>2</v>
@@ -12573,9 +12573,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="773" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B773" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C773" s="2">
         <v>2</v>
@@ -12588,9 +12588,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B774" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C774" s="2">
         <v>2</v>
@@ -12603,9 +12603,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B775" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C775" s="2">
         <v>3</v>
@@ -12618,9 +12618,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="776" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B776" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C776" s="2">
         <v>3</v>
@@ -12633,9 +12633,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="777" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B777" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C777" s="2">
         <v>3</v>
@@ -12648,9 +12648,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B778" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C778" s="2">
         <v>3</v>
@@ -12663,9 +12663,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B779" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C779" s="2">
         <v>4</v>
@@ -12678,9 +12678,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B780" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C780" s="2">
         <v>4</v>
@@ -12693,9 +12693,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="781" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B781" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C781" s="2">
         <v>5</v>
@@ -12708,9 +12708,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="782" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B782" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C782" s="2">
         <v>5</v>
@@ -12723,9 +12723,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="783" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B783" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C783" s="2">
         <v>6</v>
@@ -12738,9 +12738,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="784" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B784" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C784" s="2">
         <v>6</v>
@@ -12753,9 +12753,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="785" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B785" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C785" s="2">
         <v>6</v>
@@ -12768,9 +12768,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B786" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C786" s="2">
         <v>6</v>
@@ -12783,9 +12783,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="787" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B787" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C787" s="2">
         <v>6</v>
@@ -12798,9 +12798,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="788" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B788" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C788" s="2">
         <v>6</v>
@@ -12813,9 +12813,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="789" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B789" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C789" s="2">
         <v>7</v>
@@ -12828,9 +12828,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="790" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B790" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C790" s="2">
         <v>7</v>
@@ -12843,9 +12843,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="791" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B791" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C791" s="2">
         <v>8</v>
@@ -12858,9 +12858,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="792" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B792" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C792" s="2">
         <v>8</v>
@@ -12873,9 +12873,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="793" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B793" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C793" s="2">
         <v>9</v>
@@ -12888,9 +12888,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="794" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B794" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C794" s="2">
         <v>9</v>
@@ -12903,9 +12903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="795" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B795" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C795" s="2">
         <v>8</v>
@@ -12918,9 +12918,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="796" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B796" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C796" s="2">
         <v>8</v>
@@ -12933,9 +12933,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="797" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B797" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C797" s="2">
         <v>8</v>
@@ -12948,9 +12948,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="798" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B798" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C798" s="2">
         <v>8</v>
@@ -12963,9 +12963,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B799" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C799" s="2">
         <v>7</v>
@@ -12978,9 +12978,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B800" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C800" s="2">
         <v>7</v>
@@ -12993,9 +12993,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B801" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C801" s="2">
         <v>7</v>
@@ -13008,9 +13008,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B802" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C802" s="2">
         <v>7</v>
@@ -13023,9 +13023,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="803" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B803" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C803" s="2">
         <v>8</v>
@@ -13038,9 +13038,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="804" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B804" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C804" s="2">
         <v>8</v>
@@ -13053,9 +13053,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="805" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B805" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C805" s="2">
         <v>8</v>
@@ -13068,9 +13068,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B806" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C806" s="2">
         <v>8</v>
@@ -13083,9 +13083,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="807" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B807" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C807" s="2">
         <v>9</v>
@@ -13098,9 +13098,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="808" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B808" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C808" s="2">
         <v>9</v>
@@ -13113,9 +13113,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="809" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B809" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C809" s="2">
         <v>10</v>
@@ -13128,9 +13128,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="810" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B810" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C810" s="2">
         <v>10</v>
@@ -13143,9 +13143,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="811" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B811" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C811" s="2">
         <v>10</v>
@@ -13158,9 +13158,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B812" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C812" s="2">
         <v>10</v>
@@ -13173,9 +13173,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B813" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C813" s="2">
         <v>10</v>
@@ -13188,9 +13188,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="814" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B814" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C814" s="2">
         <v>10</v>
@@ -13203,9 +13203,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="815" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B815" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C815" s="2">
         <v>9</v>
@@ -13218,9 +13218,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="816" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B816" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C816" s="2">
         <v>9</v>
@@ -13233,9 +13233,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="817" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B817" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C817" s="2">
         <v>5</v>
@@ -13248,9 +13248,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="818" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B818" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C818" s="2">
         <v>5</v>
@@ -13263,9 +13263,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="819" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B819" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C819" s="2">
         <v>4</v>
@@ -13278,9 +13278,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="820" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B820" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C820" s="2">
         <v>4</v>
@@ -13293,9 +13293,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B821" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C821" s="2">
         <v>3</v>
@@ -13308,9 +13308,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B822" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C822" s="2">
         <v>3</v>
@@ -13323,9 +13323,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="823" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B823" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C823" s="2">
         <v>2</v>
@@ -13338,9 +13338,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B824" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C824" s="2">
         <v>2</v>
@@ -13353,9 +13353,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B825" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C825" s="2">
         <v>1</v>
@@ -13368,9 +13368,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B826" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C826" s="2">
         <v>1</v>
@@ -13383,9 +13383,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="827" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B827" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C827" s="2">
         <v>1</v>
@@ -13398,9 +13398,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="828" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B828" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C828" s="2">
         <v>1</v>
@@ -13413,9 +13413,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="829" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B829" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C829" s="2">
         <v>2</v>
@@ -13428,9 +13428,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="830" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B830" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C830" s="2">
         <v>2</v>
@@ -13443,9 +13443,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B831" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C831" s="2">
         <v>3</v>
@@ -13458,9 +13458,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="832" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B832" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C832" s="2">
         <v>3</v>
@@ -13473,9 +13473,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="833" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B833" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C833" s="2">
         <v>4</v>
@@ -13488,9 +13488,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="834" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B834" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C834" s="2">
         <v>4</v>
@@ -13503,9 +13503,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B835" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C835" s="2">
         <v>5</v>
@@ -13518,9 +13518,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="836" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B836" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C836" s="2">
         <v>5</v>
@@ -13533,9 +13533,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="837" spans="2:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B837" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C837" s="7"/>
       <c r="D837" s="5">
@@ -13547,9 +13547,9 @@
       </c>
       <c r="F837" s="5"/>
     </row>
-    <row r="838" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B838" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D838" s="1">
         <v>101</v>
@@ -13558,9 +13558,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="839" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B839" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C839" s="2">
         <v>1</v>
@@ -13573,9 +13573,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="840" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B840" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C840" s="2">
         <v>1</v>
@@ -13588,9 +13588,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B841" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C841" s="2">
         <v>2</v>
@@ -13603,9 +13603,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="842" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B842" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C842" s="2">
         <v>2</v>
@@ -13618,9 +13618,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="843" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B843" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C843" s="2">
         <v>3</v>
@@ -13633,9 +13633,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="844" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B844" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C844" s="2">
         <v>3</v>
@@ -13648,9 +13648,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="845" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B845" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C845" s="2">
         <v>3</v>
@@ -13663,9 +13663,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="846" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B846" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C846" s="2">
         <v>3</v>
@@ -13678,9 +13678,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B847" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C847" s="2">
         <v>3</v>
@@ -13693,9 +13693,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="848" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B848" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C848" s="2">
         <v>3</v>
@@ -13708,9 +13708,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="849" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B849" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C849" s="2">
         <v>2</v>
@@ -13723,9 +13723,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="850" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B850" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C850" s="2">
         <v>2</v>
@@ -13738,9 +13738,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="851" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B851" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C851" s="2">
         <v>1</v>
@@ -13753,9 +13753,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="852" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B852" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C852" s="2">
         <v>1</v>
@@ -13768,9 +13768,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="853" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B853" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C853" s="2">
         <v>2</v>
@@ -13783,9 +13783,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="854" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B854" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C854" s="2">
         <v>2</v>
@@ -13798,9 +13798,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B855" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C855" s="2">
         <v>1</v>
@@ -13813,9 +13813,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="856" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B856" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C856" s="2">
         <v>1</v>
@@ -13828,9 +13828,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B857" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C857" s="2">
         <v>1</v>
@@ -13843,9 +13843,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="858" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B858" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C858" s="2">
         <v>1</v>
@@ -13858,9 +13858,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="859" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B859" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C859" s="2">
         <v>2</v>
@@ -13873,9 +13873,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B860" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C860" s="2">
         <v>2</v>
@@ -13888,9 +13888,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B861" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C861" s="2">
         <v>3</v>
@@ -13903,9 +13903,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B862" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C862" s="2">
         <v>3</v>
@@ -13918,9 +13918,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B863" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C863" s="2">
         <v>1</v>
@@ -13933,9 +13933,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="864" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B864" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C864" s="2">
         <v>1</v>
@@ -13948,9 +13948,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="865" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B865" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C865" s="2">
         <v>1</v>
@@ -13963,9 +13963,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="866" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B866" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C866" s="2">
         <v>1</v>
@@ -13978,9 +13978,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B867" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C867" s="2">
         <v>1</v>
@@ -13993,9 +13993,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="868" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B868" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C868" s="2">
         <v>1</v>
@@ -14008,9 +14008,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="869" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B869" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C869" s="2">
         <v>2</v>
@@ -14023,9 +14023,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="870" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B870" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C870" s="2">
         <v>2</v>
@@ -14038,9 +14038,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B871" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C871" s="2">
         <v>2</v>
@@ -14053,9 +14053,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B872" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C872" s="2">
         <v>2</v>
@@ -14068,9 +14068,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="873" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B873" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C873" s="2">
         <v>2</v>
@@ -14083,9 +14083,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="874" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B874" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C874" s="2">
         <v>2</v>
@@ -14098,9 +14098,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="875" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B875" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C875" s="2">
         <v>3</v>
@@ -14113,9 +14113,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="876" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B876" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C876" s="2">
         <v>3</v>
@@ -14128,9 +14128,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B877" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C877" s="2">
         <v>3</v>
@@ -14143,9 +14143,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="878" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B878" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C878" s="2">
         <v>3</v>
@@ -14158,9 +14158,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="879" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B879" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C879" s="2">
         <v>3</v>
@@ -14173,9 +14173,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="880" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B880" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C880" s="2">
         <v>3</v>
@@ -14188,9 +14188,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B881" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C881" s="2">
         <v>4</v>
@@ -14203,9 +14203,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="882" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B882" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C882" s="2">
         <v>4</v>
@@ -14218,9 +14218,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="883" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B883" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C883" s="2">
         <v>4</v>
@@ -14233,9 +14233,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="884" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B884" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C884" s="2">
         <v>4</v>
@@ -14248,9 +14248,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="885" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B885" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C885" s="2">
         <v>4</v>
@@ -14263,9 +14263,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="886" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B886" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C886" s="2">
         <v>4</v>
@@ -14278,9 +14278,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="887" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B887" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C887" s="2">
         <v>5</v>
@@ -14293,9 +14293,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="888" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B888" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C888" s="2">
         <v>5</v>
@@ -14308,9 +14308,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="889" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B889" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C889" s="2">
         <v>6</v>
@@ -14323,9 +14323,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="890" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B890" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C890" s="2">
         <v>6</v>
@@ -14338,9 +14338,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="891" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B891" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C891" s="2">
         <v>6</v>
@@ -14353,9 +14353,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B892" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C892" s="2">
         <v>6</v>
@@ -14368,9 +14368,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="893" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B893" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C893" s="2">
         <v>6</v>
@@ -14383,9 +14383,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="894" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B894" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C894" s="2">
         <v>6</v>
@@ -14398,9 +14398,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="895" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B895" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C895" s="2">
         <v>5</v>
@@ -14413,9 +14413,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="896" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B896" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C896" s="2">
         <v>5</v>
@@ -14428,9 +14428,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B897" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C897" s="2">
         <v>5</v>
@@ -14443,9 +14443,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="898" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B898" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C898" s="2">
         <v>5</v>
@@ -14458,9 +14458,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="899" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:7" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B899" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C899" s="7"/>
       <c r="D899" s="5">

--- a/raw_ts_data/fd/fd3_ts1.xlsx
+++ b/raw_ts_data/fd/fd3_ts1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/fd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF3A987-27FA-2C47-AAFD-8E5571BAF67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F597493-85F2-AF45-8F99-A18B36205128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="83">
   <si>
     <t>Reach</t>
   </si>
@@ -387,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -526,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,6 +580,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,9 +808,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C756" sqref="C756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13626,8 +13640,8 @@
       <c r="Z685" s="13"/>
     </row>
     <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B686" s="5">
-        <v>11</v>
+      <c r="B686" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C686" s="6"/>
       <c r="D686" s="5">
@@ -13875,33 +13889,33 @@
       <c r="F700" s="5"/>
     </row>
     <row r="701" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B701" s="5" t="s">
+      <c r="B701" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C701" s="6">
-        <v>6</v>
-      </c>
-      <c r="D701" s="5">
+      <c r="C701" s="28">
+        <v>6</v>
+      </c>
+      <c r="D701" s="27">
         <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="E701" s="6" t="s">
+      <c r="E701" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F701" s="5"/>
     </row>
     <row r="702" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B702" s="5" t="s">
+      <c r="B702" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C702" s="6">
-        <v>6</v>
-      </c>
-      <c r="D702" s="5">
+      <c r="C702" s="28">
+        <v>6</v>
+      </c>
+      <c r="D702" s="27">
         <f t="shared" si="7"/>
         <v>117</v>
       </c>
-      <c r="E702" s="6" t="s">
+      <c r="E702" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F702" s="5"/>
@@ -13943,7 +13957,7 @@
         <v>74</v>
       </c>
       <c r="C705" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D705" s="5">
         <f t="shared" si="7"/>
@@ -13959,7 +13973,7 @@
         <v>74</v>
       </c>
       <c r="C706" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D706" s="5">
         <f t="shared" si="7"/>
@@ -13971,33 +13985,33 @@
       <c r="F706" s="5"/>
     </row>
     <row r="707" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B707" s="5" t="s">
+      <c r="B707" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C707" s="6">
-        <v>6</v>
-      </c>
-      <c r="D707" s="5">
+      <c r="C707" s="28">
+        <v>3</v>
+      </c>
+      <c r="D707" s="27">
         <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="E707" s="6" t="s">
+      <c r="E707" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F707" s="5"/>
     </row>
     <row r="708" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B708" s="5" t="s">
+      <c r="B708" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C708" s="6">
-        <v>6</v>
-      </c>
-      <c r="D708" s="5">
+      <c r="C708" s="28">
+        <v>3</v>
+      </c>
+      <c r="D708" s="27">
         <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="E708" s="6" t="s">
+      <c r="E708" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F708" s="5"/>
@@ -14007,7 +14021,7 @@
         <v>74</v>
       </c>
       <c r="C709" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D709" s="5">
         <f t="shared" si="7"/>
@@ -14023,7 +14037,7 @@
         <v>74</v>
       </c>
       <c r="C710" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D710" s="5">
         <f t="shared" si="7"/>
@@ -14051,49 +14065,49 @@
       <c r="F711" s="5"/>
     </row>
     <row r="712" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="5" t="s">
+      <c r="B712" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C712" s="6">
-        <v>2</v>
-      </c>
-      <c r="D712" s="5">
+      <c r="C712" s="30">
+        <v>2</v>
+      </c>
+      <c r="D712" s="29">
         <f t="shared" si="7"/>
         <v>127</v>
       </c>
-      <c r="E712" s="6" t="s">
+      <c r="E712" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F712" s="5"/>
     </row>
     <row r="713" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B713" s="5" t="s">
+      <c r="B713" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C713" s="6">
-        <v>2</v>
-      </c>
-      <c r="D713" s="5">
+      <c r="C713" s="28">
+        <v>2</v>
+      </c>
+      <c r="D713" s="27">
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="E713" s="6" t="s">
+      <c r="E713" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F713" s="5"/>
     </row>
     <row r="714" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B714" s="5" t="s">
+      <c r="B714" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C714" s="6">
-        <v>2</v>
-      </c>
-      <c r="D714" s="5">
+      <c r="C714" s="28">
+        <v>2</v>
+      </c>
+      <c r="D714" s="27">
         <f t="shared" si="7"/>
         <v>129</v>
       </c>
-      <c r="E714" s="6" t="s">
+      <c r="E714" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F714" s="5"/>
@@ -14163,33 +14177,33 @@
       <c r="F718" s="5"/>
     </row>
     <row r="719" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B719" s="5" t="s">
+      <c r="B719" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C719" s="6">
-        <v>2</v>
-      </c>
-      <c r="D719" s="5">
+      <c r="C719" s="28">
+        <v>1</v>
+      </c>
+      <c r="D719" s="27">
         <f t="shared" si="7"/>
         <v>134</v>
       </c>
-      <c r="E719" s="6" t="s">
+      <c r="E719" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F719" s="5"/>
     </row>
     <row r="720" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B720" s="5" t="s">
+      <c r="B720" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C720" s="6">
-        <v>2</v>
-      </c>
-      <c r="D720" s="5">
+      <c r="C720" s="28">
+        <v>1</v>
+      </c>
+      <c r="D720" s="27">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="E720" s="6" t="s">
+      <c r="E720" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F720" s="5"/>
@@ -14199,7 +14213,7 @@
         <v>74</v>
       </c>
       <c r="C721" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D721" s="5">
         <f t="shared" si="7"/>
@@ -14215,7 +14229,7 @@
         <v>74</v>
       </c>
       <c r="C722" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D722" s="5">
         <f t="shared" si="7"/>
